--- a/Tos.FoodProcs.Web/templates/hinmeiMasterIchiran_pattern3_vi.xlsx
+++ b/Tos.FoodProcs.Web/templates/hinmeiMasterIchiran_pattern3_vi.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\~2025\FPL_Vietnamese_Version2\1.SRC_v2\trunk\src\01_FPLite\src\C#\Tos.FoodProcs.Web\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\FPL_VN版\src_code\trunk\src\01_FPLite\src\C#\Tos.FoodProcs.Web\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEFFC6A-BCB8-4430-BF6A-AB7280276488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,20 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>V/W</t>
-  </si>
-  <si>
-    <t>Expiration date 
-after thawing(day)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Storage type 
-after thawing</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Mã</t>
   </si>
@@ -50,48 +36,19 @@
     <t>Tên sản phẩm (rút gọn)</t>
   </si>
   <si>
-    <t>Loại
-sản phẩm</t>
-  </si>
-  <si>
-    <t>Lượng trong quy cách đóng gói</t>
-  </si>
-  <si>
     <t>Số lượng bên trong</t>
   </si>
   <si>
-    <t>Trọng lượng một cái (Kg)</t>
-  </si>
-  <si>
     <t>Đơn vị nhập</t>
   </si>
   <si>
-    <t>Đơn vị sử dụng</t>
-  </si>
-  <si>
     <t>Tỉ trọng</t>
   </si>
   <si>
     <t>Đơn giá</t>
   </si>
   <si>
-    <t>Nhóm sản phẩm</t>
-  </si>
-  <si>
     <t>Hạn sử dụng (ngày)</t>
-  </si>
-  <si>
-    <t>Hạn sử dụng sau khi mở</t>
-  </si>
-  <si>
-    <t>Kiểu bảo quản</t>
-  </si>
-  <si>
-    <t>Kiểu bảo quản 
-sau khi mở</t>
-  </si>
-  <si>
-    <t>Hình thái</t>
   </si>
   <si>
     <t>Tỉ lệ
@@ -107,10 +64,6 @@
     <t>Nơi nhận hàng</t>
   </si>
   <si>
-    <t>Thời gian
-cung ứng</t>
-  </si>
-  <si>
     <t>Ghi chú</t>
   </si>
   <si>
@@ -124,50 +77,90 @@
     <t>Tên công thức</t>
   </si>
   <si>
-    <t>Số lượng đã chạy mẻ SX
-(Sản lượng của mẻ SX)</t>
-  </si>
-  <si>
     <t>Chi phí cho 1 C/S</t>
-  </si>
-  <si>
-    <t>Delivery unit price</t>
-  </si>
-  <si>
-    <t>Danh sách master sản phẩm</t>
   </si>
   <si>
     <t>Chi phí lao động
  tiêu chuẩn</t>
   </si>
   <si>
-    <t>Loại sản phẩm               :</t>
-  </si>
-  <si>
-    <t>Nhóm                             :</t>
-  </si>
-  <si>
-    <t>Kiểu bảo quản               :</t>
-  </si>
-  <si>
-    <t>Tên sản phẩm               :</t>
-  </si>
-  <si>
-    <t>Hiển thị không sử dụng :</t>
-  </si>
-  <si>
-    <t>Ngày giờ xuất                :</t>
-  </si>
-  <si>
-    <t>Người xuất   　　　  　 :</t>
+    <t>Loại</t>
+  </si>
+  <si>
+    <t>Danh sách master nguyên vật liệu</t>
+  </si>
+  <si>
+    <t>Điều kiện bảo quản</t>
+  </si>
+  <si>
+    <t>Hiển thị không sử dụng</t>
+  </si>
+  <si>
+    <t>Ngày giờ xuất</t>
+  </si>
+  <si>
+    <t>Người xuất</t>
+  </si>
+  <si>
+    <t>Tổng trọng lượng
+theo quy cách đóng gói</t>
+  </si>
+  <si>
+    <t>Trọng lượng 1 cái</t>
+  </si>
+  <si>
+    <t>Đơn vị
+trọng lượng</t>
+  </si>
+  <si>
+    <t>Đơn vị
+sử dụng</t>
+  </si>
+  <si>
+    <t>Phân loại nhóm</t>
+  </si>
+  <si>
+    <t>Hạn sử dụng
+sau khi mở (ngày)</t>
+  </si>
+  <si>
+    <t>Hạn sử dụng
+sau khi rã đông (ngày)</t>
+  </si>
+  <si>
+    <t>ĐK bảo quản</t>
+  </si>
+  <si>
+    <t>ĐK bảo quản 
+sau khi mở</t>
+  </si>
+  <si>
+    <t>ĐK bảo quản
+sau khi rã đông</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Sản lượng của 1 mẻ SX</t>
+  </si>
+  <si>
+    <t>Đơn giá nhập</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>Thời gian cung ứng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="@* \:"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -292,7 +285,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -384,6 +377,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -479,23 +476,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -531,23 +511,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -723,7 +686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -771,7 +734,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3"/>
       <c r="E1" s="5"/>
@@ -784,8 +747,8 @@
       <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:35" s="4" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>35</v>
+      <c r="A2" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
@@ -797,8 +760,8 @@
       <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:35" s="4" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>36</v>
+      <c r="A3" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
@@ -810,8 +773,8 @@
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:35" s="4" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>37</v>
+      <c r="A4" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="B4" s="9"/>
       <c r="E4" s="5"/>
@@ -824,8 +787,8 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:35" s="4" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>38</v>
+      <c r="A5" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="B5" s="9"/>
       <c r="E5" s="5"/>
@@ -838,8 +801,8 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:35" s="4" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>39</v>
+      <c r="A6" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="B6" s="9"/>
       <c r="E6" s="5"/>
@@ -863,8 +826,8 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:35" s="4" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>40</v>
+      <c r="A8" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="B8" s="10"/>
       <c r="E8" s="5"/>
@@ -877,8 +840,8 @@
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:35" s="4" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>41</v>
+      <c r="A9" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="B9" s="10"/>
       <c r="E9" s="5"/>
@@ -928,106 +891,106 @@
     </row>
     <row r="11" spans="1:35" s="12" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="H11" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="K11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="M11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="N11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="P11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="V11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="W11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="X11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="Y11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="Z11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="AB11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="AC11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="AD11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="AE11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="X11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y11" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA11" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC11" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD11" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG11" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="AH11" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AI11" s="17"/>
     </row>
